--- a/biology/Botanique/Pentzia_monodiana/Pentzia_monodiana.xlsx
+++ b/biology/Botanique/Pentzia_monodiana/Pentzia_monodiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pentzia monodiana est une espèce de plantes à fleurs du genre Pentzia et de la famille des Astéracées.
 Elle est protégée en Algérie.
-Thunberg a dédié le genre à Hendrik Christian Pentz, 1738–1803, herboriste suédois[1].
+Thunberg a dédié le genre à Hendrik Christian Pentz, 1738–1803, herboriste suédois.
 Maire a nommé l'espèce en référence à Théodore Monod.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La description ci-dessous est extraite de Ozenda, 2004, p.438[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La description ci-dessous est extraite de Ozenda, 2004, p.438.
 Port général : herbe de 20-35 cm, à tiges très rameuses et un peu ligneuses à la base
 Appareil végétatif : rameaux dressés blanchâtres, velus, ciliés et couverts de poils appliqués. Feuilles également couvertes de poils appliqués, sessiles, auriculées à la base, les moyennes profondément divisées.
 Appareil reproducteur : capitules petits, de 5-8 mm, isolés au sommet des rameaux, à fleurs toutes tubuleuses jaune d'or ou un peu brunâtres.</t>
@@ -547,9 +561,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante pousse dans les montagnes du Sahara central et méridional : Tassili n'Ajjer, Tibesti, Hoggar, dans l'étage supérieur où elle constitue des peuplements importants[3]. Dans le Hoggar, elle pousse dans les dépressions du plateau rocailleux basaltique, au-dessus des mares d'Imarera[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante pousse dans les montagnes du Sahara central et méridional : Tassili n'Ajjer, Tibesti, Hoggar, dans l'étage supérieur où elle constitue des peuplements importants. Dans le Hoggar, elle pousse dans les dépressions du plateau rocailleux basaltique, au-dessus des mares d'Imarera.
 </t>
         </is>
       </c>
